--- a/Data D Transfer.xlsx
+++ b/Data D Transfer.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\m2u-Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\M2UAlia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E5486-975A-47E4-8779-7195FA8124F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="0" windowWidth="10500" windowHeight="12240" xr2:uid="{329A94F7-E50C-4668-B510-698B74401E3A}"/>
+    <workbookView xWindow="12540" yWindow="0" windowWidth="10500" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="198">
   <si>
     <t>Environment</t>
   </si>
@@ -621,12 +620,15 @@
   </si>
   <si>
     <t>PRIVATE TRANSFER - OTHER CAPITAL TRANSFERS</t>
+  </si>
+  <si>
+    <t>not testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1283,31 +1285,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC33A80D-123D-4D8E-82DA-F244E3072A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="89" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.21875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="41.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="31.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="46.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.1796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="41.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>83</v>
       </c>
@@ -1437,12 +1439,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1478,7 @@
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1488,7 +1490,7 @@
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1498,7 +1500,7 @@
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="19"/>
@@ -1507,7 +1509,7 @@
       <c r="F12" s="30"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1525,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1541,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1551,13 +1553,13 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1575,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
         <v>16</v>
@@ -1601,7 +1603,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1631,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1659,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>22</v>
       </c>
@@ -1687,7 +1689,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
@@ -1715,7 +1717,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1745,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1765,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1777,13 +1779,13 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -1797,7 +1799,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>46</v>
       </c>
@@ -1811,7 +1813,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -1827,7 +1829,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1843,7 +1845,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1861,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1875,7 +1877,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1891,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1901,7 +1903,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="s">
         <v>57</v>
       </c>
@@ -1917,7 +1919,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>62</v>
       </c>
@@ -1941,7 +1943,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -1963,7 +1965,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>49</v>
       </c>
@@ -1985,7 +1987,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>50</v>
       </c>
@@ -2007,7 +2009,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>51</v>
       </c>
@@ -2029,7 +2031,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>48</v>
       </c>
@@ -2045,7 +2047,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -2059,7 +2061,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="s">
         <v>57</v>
       </c>
@@ -2075,7 +2077,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
         <v>63</v>
       </c>
@@ -2097,7 +2099,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>47</v>
       </c>
@@ -2119,7 +2121,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2143,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>51</v>
       </c>
@@ -2185,7 +2187,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
@@ -2201,7 +2203,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2217,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2227,7 +2229,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -2235,7 +2237,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -2243,7 +2245,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
@@ -2258,7 +2260,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2275,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>67</v>
       </c>
@@ -2288,7 +2290,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>18</v>
       </c>
@@ -2301,7 +2303,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>48</v>
       </c>
@@ -2316,7 +2318,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>69</v>
       </c>
@@ -2331,14 +2333,14 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2349,7 +2351,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="33" t="s">
         <v>74</v>
       </c>
@@ -2362,7 +2364,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>75</v>
       </c>
@@ -2377,7 +2379,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="32"/>
       <c r="B65" s="49" t="s">
         <v>77</v>
@@ -2414,7 +2416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>135</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>4761340000000030</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>125</v>
       </c>
@@ -2467,7 +2469,7 @@
       </c>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
       <c r="B68" s="8"/>
       <c r="C68" s="24" t="s">
@@ -2492,7 +2494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="8"/>
       <c r="C69" s="24" t="s">
@@ -2520,7 +2522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>178</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>149</v>
       </c>
@@ -2577,7 +2579,7 @@
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>136</v>
       </c>
@@ -2600,7 +2602,7 @@
       </c>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>137</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
@@ -2655,7 +2657,7 @@
       </c>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>121</v>
       </c>
@@ -2682,7 +2684,7 @@
       </c>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="10"/>
       <c r="B76" s="8"/>
       <c r="C76" s="24" t="s">
@@ -2705,7 +2707,7 @@
       </c>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>142</v>
       </c>
@@ -2730,7 +2732,7 @@
       </c>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>149</v>
       </c>
@@ -2753,7 +2755,7 @@
       </c>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>175</v>
       </c>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>144</v>
       </c>
@@ -2805,7 +2807,7 @@
       </c>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>145</v>
       </c>
@@ -2832,7 +2834,7 @@
       </c>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>121</v>
       </c>
@@ -2859,7 +2861,7 @@
       </c>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>146</v>
       </c>
@@ -2886,7 +2888,7 @@
       </c>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>176</v>
       </c>
@@ -2913,7 +2915,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="8"/>
       <c r="C85" s="24" t="s">
@@ -2936,7 +2938,7 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>177</v>
       </c>
@@ -2953,7 +2955,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>179</v>
       </c>
@@ -2976,7 +2978,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>193</v>
       </c>
@@ -2995,7 +2997,7 @@
       </c>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>194</v>
       </c>
@@ -3014,12 +3016,12 @@
       </c>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="9"/>
@@ -3037,7 +3039,7 @@
       </c>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="10"/>
       <c r="B91" s="8"/>
       <c r="C91" s="24" t="s">
@@ -3058,7 +3060,7 @@
       </c>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="10"/>
       <c r="B92" s="8"/>
       <c r="C92" s="24" t="s">
@@ -3079,7 +3081,7 @@
       </c>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="10"/>
       <c r="B93" s="8"/>
       <c r="C93" s="24" t="s">
@@ -3096,7 +3098,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="10"/>
       <c r="B94" s="8"/>
       <c r="C94" s="24" t="s">
@@ -3117,7 +3119,7 @@
       </c>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="8"/>
       <c r="C95" s="24"/>
@@ -3136,7 +3138,7 @@
       </c>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="10"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -3159,7 +3161,7 @@
       </c>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="10"/>
       <c r="B97" s="8"/>
       <c r="C97" s="24"/>
@@ -3178,7 +3180,7 @@
       </c>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="8"/>
       <c r="C98" s="24"/>
@@ -3197,7 +3199,7 @@
       </c>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>151</v>
       </c>
@@ -3220,7 +3222,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="8"/>
       <c r="C100" s="24"/>
@@ -3235,7 +3237,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
       <c r="B101" s="8"/>
       <c r="C101" s="24"/>
@@ -3254,7 +3256,7 @@
       </c>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
       <c r="B102" s="8"/>
       <c r="C102" s="24"/>
@@ -3273,7 +3275,7 @@
       </c>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="10"/>
       <c r="B103" s="8"/>
       <c r="C103" s="24"/>
@@ -3284,7 +3286,7 @@
       <c r="H103" s="19"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
       <c r="B104" s="8"/>
       <c r="C104" s="24"/>
@@ -3299,7 +3301,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
       <c r="B105" s="8"/>
       <c r="C105" s="24">
@@ -3320,7 +3322,7 @@
       </c>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
       <c r="B106" s="12"/>
       <c r="C106" s="53"/>
@@ -3342,14 +3344,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{37BA8CF8-10F4-44E3-B093-820432145EA5}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{216D4693-062C-4ACD-8327-91B11795CE95}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{27D759C7-CB78-4A0F-839A-1E18FEA422E3}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{40A7EC1D-53DD-466C-AD96-F88A39E605FC}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{D1E494E9-7C8E-456A-ACE4-655D51C21F90}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{48B504A0-6618-45B4-A69A-4524FBE2E045}"/>
-    <hyperlink ref="A2" r:id="rId7" xr:uid="{A99E3A30-C408-41D1-8B61-E475E4969CE7}"/>
-    <hyperlink ref="B84" r:id="rId8" xr:uid="{87376153-3361-420B-84EE-438EF7BB0254}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="B84" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -3357,24 +3359,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC86905-B6EC-4278-8556-BFB1A01EB1F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>15</v>
@@ -3392,7 +3394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3497,222 +3499,222 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>108</v>
       </c>
